--- a/dcd_compsr_offset_tran_elvt_tsmc2p_meas.xlsx
+++ b/dcd_compsr_offset_tran_elvt_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5116" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5586" uniqueCount="232">
   <si>
     <t>Process</t>
   </si>
@@ -127,9 +127,6 @@
     <t>typical</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>tsmc2p (1)</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
     <t>rcbest_ccbest_t</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>tsmc2p (2)</t>
   </si>
   <si>
@@ -440,9 +440,6 @@
   </si>
   <si>
     <t>tsmc2p (71)</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2p (72)</t>
@@ -1194,81 +1191,81 @@
         <v>36</v>
       </c>
       <c r="R2">
-        <v>249.881</v>
+        <v>350.054</v>
       </c>
       <c r="S2">
-        <v>-100.119</v>
+        <v>0.0536539</v>
       </c>
       <c r="T2">
-        <v>-0.118839</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>37</v>
+        <v>0.0536539</v>
+      </c>
+      <c r="U2">
+        <v>379.125</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
         <v>48</v>
       </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3">
-        <v>250.105</v>
-      </c>
-      <c r="S3">
-        <v>-134.895</v>
-      </c>
-      <c r="T3">
-        <v>0.1047</v>
+      <c r="R3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1276,64 +1273,64 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
       </c>
       <c r="I4" t="s">
         <v>51</v>
       </c>
       <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
         <v>47</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
         <v>48</v>
       </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4">
-        <v>249.905</v>
-      </c>
-      <c r="S4">
-        <v>-135.095</v>
-      </c>
-      <c r="T4">
-        <v>-0.0948677</v>
+      <c r="R4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1362,7 +1359,7 @@
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
         <v>60</v>
@@ -1389,16 +1386,16 @@
         <v>62</v>
       </c>
       <c r="R5">
-        <v>249.807</v>
+        <v>315.033</v>
       </c>
       <c r="S5">
-        <v>-65.19280000000001</v>
+        <v>0.0328094</v>
       </c>
       <c r="T5">
-        <v>-0.192797</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>37</v>
+        <v>0.0328094</v>
+      </c>
+      <c r="U5">
+        <v>325.347</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1454,16 +1451,16 @@
         <v>62</v>
       </c>
       <c r="R6">
-        <v>249.81</v>
+        <v>315.065</v>
       </c>
       <c r="S6">
-        <v>-65.18980000000001</v>
+        <v>0.06455569999999999</v>
       </c>
       <c r="T6">
-        <v>-0.189816</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>37</v>
+        <v>0.06455569999999999</v>
+      </c>
+      <c r="U6">
+        <v>262.265</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1492,7 +1489,7 @@
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
@@ -1518,17 +1515,17 @@
       <c r="Q7" t="s">
         <v>62</v>
       </c>
-      <c r="R7">
-        <v>249.956</v>
-      </c>
-      <c r="S7">
-        <v>-65.04430000000001</v>
-      </c>
-      <c r="T7">
-        <v>-0.0443087</v>
+      <c r="R7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1583,17 +1580,17 @@
       <c r="Q8" t="s">
         <v>62</v>
       </c>
-      <c r="R8">
-        <v>249.881</v>
-      </c>
-      <c r="S8">
-        <v>-65.1194</v>
-      </c>
-      <c r="T8">
-        <v>-0.119415</v>
+      <c r="R8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1622,7 +1619,7 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
         <v>60</v>
@@ -1648,17 +1645,17 @@
       <c r="Q9" t="s">
         <v>62</v>
       </c>
-      <c r="R9">
-        <v>249.882</v>
-      </c>
-      <c r="S9">
-        <v>-65.1178</v>
-      </c>
-      <c r="T9">
-        <v>-0.11779</v>
+      <c r="R9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1713,17 +1710,17 @@
       <c r="Q10" t="s">
         <v>62</v>
       </c>
-      <c r="R10">
-        <v>250.21</v>
-      </c>
-      <c r="S10">
-        <v>-64.7899</v>
-      </c>
-      <c r="T10">
-        <v>0.210074</v>
+      <c r="R10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1731,64 +1728,64 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>
       </c>
       <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
         <v>46</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>47</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" t="s">
         <v>48</v>
       </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11">
-        <v>250.105</v>
-      </c>
-      <c r="S11">
-        <v>-134.895</v>
-      </c>
-      <c r="T11">
-        <v>0.1047</v>
+      <c r="R11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1796,64 +1793,64 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
       </c>
       <c r="G12" t="s">
         <v>58</v>
       </c>
       <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
         <v>45</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>46</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>47</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" t="s">
         <v>48</v>
       </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12">
-        <v>250.105</v>
-      </c>
-      <c r="S12">
-        <v>-134.895</v>
-      </c>
-      <c r="T12">
-        <v>0.1047</v>
+      <c r="R12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1861,19 +1858,19 @@
         <v>78</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
       </c>
       <c r="G13" t="s">
         <v>58</v>
@@ -1882,43 +1879,43 @@
         <v>59</v>
       </c>
       <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
         <v>46</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>47</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" t="s">
         <v>48</v>
       </c>
-      <c r="L13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>49</v>
-      </c>
-      <c r="R13">
-        <v>250.105</v>
-      </c>
-      <c r="S13">
-        <v>-134.895</v>
-      </c>
-      <c r="T13">
-        <v>0.1047</v>
+      <c r="R13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1926,22 +1923,22 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -1950,40 +1947,40 @@
         <v>51</v>
       </c>
       <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
         <v>47</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="s">
         <v>48</v>
       </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14">
-        <v>249.905</v>
-      </c>
-      <c r="S14">
-        <v>-135.095</v>
-      </c>
-      <c r="T14">
-        <v>-0.0948677</v>
+      <c r="R14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1991,64 +1988,64 @@
         <v>80</v>
       </c>
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
       </c>
       <c r="G15" t="s">
         <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
         <v>51</v>
       </c>
       <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
         <v>47</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" t="s">
         <v>48</v>
       </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15">
-        <v>249.905</v>
-      </c>
-      <c r="S15">
-        <v>-135.095</v>
-      </c>
-      <c r="T15">
-        <v>-0.0948677</v>
+      <c r="R15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2056,19 +2053,19 @@
         <v>81</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
       </c>
       <c r="G16" t="s">
         <v>58</v>
@@ -2080,40 +2077,40 @@
         <v>51</v>
       </c>
       <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
         <v>47</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
         <v>48</v>
       </c>
-      <c r="L16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16">
-        <v>249.905</v>
-      </c>
-      <c r="S16">
-        <v>-135.095</v>
-      </c>
-      <c r="T16">
-        <v>-0.0948677</v>
+      <c r="R16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -2136,13 +2133,13 @@
         <v>57</v>
       </c>
       <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
         <v>44</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
       </c>
       <c r="J17" t="s">
         <v>60</v>
@@ -2168,17 +2165,17 @@
       <c r="Q17" t="s">
         <v>62</v>
       </c>
-      <c r="R17">
-        <v>249.807</v>
-      </c>
-      <c r="S17">
-        <v>-65.19280000000001</v>
-      </c>
-      <c r="T17">
-        <v>-0.192797</v>
+      <c r="R17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -2201,13 +2198,13 @@
         <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s">
         <v>60</v>
@@ -2233,17 +2230,17 @@
       <c r="Q18" t="s">
         <v>62</v>
       </c>
-      <c r="R18">
-        <v>249.807</v>
-      </c>
-      <c r="S18">
-        <v>-65.19280000000001</v>
-      </c>
-      <c r="T18">
-        <v>-0.192797</v>
+      <c r="R18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -2269,10 +2266,10 @@
         <v>58</v>
       </c>
       <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
         <v>45</v>
-      </c>
-      <c r="I19" t="s">
-        <v>46</v>
       </c>
       <c r="J19" t="s">
         <v>60</v>
@@ -2298,17 +2295,17 @@
       <c r="Q19" t="s">
         <v>62</v>
       </c>
-      <c r="R19">
-        <v>249.807</v>
-      </c>
-      <c r="S19">
-        <v>-65.19280000000001</v>
-      </c>
-      <c r="T19">
-        <v>-0.192797</v>
+      <c r="R19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2331,10 +2328,10 @@
         <v>57</v>
       </c>
       <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
         <v>44</v>
-      </c>
-      <c r="H20" t="s">
-        <v>45</v>
       </c>
       <c r="I20" t="s">
         <v>51</v>
@@ -2363,17 +2360,17 @@
       <c r="Q20" t="s">
         <v>62</v>
       </c>
-      <c r="R20">
-        <v>249.81</v>
-      </c>
-      <c r="S20">
-        <v>-65.18980000000001</v>
-      </c>
-      <c r="T20">
-        <v>-0.189816</v>
+      <c r="R20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2396,7 +2393,7 @@
         <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -2428,17 +2425,17 @@
       <c r="Q21" t="s">
         <v>62</v>
       </c>
-      <c r="R21">
-        <v>249.81</v>
-      </c>
-      <c r="S21">
-        <v>-65.18980000000001</v>
-      </c>
-      <c r="T21">
-        <v>-0.189816</v>
+      <c r="R21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2464,7 +2461,7 @@
         <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
         <v>51</v>
@@ -2493,17 +2490,17 @@
       <c r="Q22" t="s">
         <v>62</v>
       </c>
-      <c r="R22">
-        <v>249.81</v>
-      </c>
-      <c r="S22">
-        <v>-65.18980000000001</v>
-      </c>
-      <c r="T22">
-        <v>-0.189816</v>
+      <c r="R22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2526,13 +2523,13 @@
         <v>57</v>
       </c>
       <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
         <v>44</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>45</v>
-      </c>
-      <c r="I23" t="s">
-        <v>46</v>
       </c>
       <c r="J23" t="s">
         <v>60</v>
@@ -2556,19 +2553,19 @@
         <v>35</v>
       </c>
       <c r="Q23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R23">
-        <v>249.706</v>
-      </c>
-      <c r="S23">
-        <v>-65.2936</v>
-      </c>
-      <c r="T23">
-        <v>-0.293586</v>
+        <v>48</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2591,13 +2588,13 @@
         <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
         <v>60</v>
@@ -2621,19 +2618,19 @@
         <v>35</v>
       </c>
       <c r="Q24" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24">
-        <v>249.706</v>
-      </c>
-      <c r="S24">
-        <v>-65.2936</v>
-      </c>
-      <c r="T24">
-        <v>-0.293586</v>
+        <v>48</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2659,10 +2656,10 @@
         <v>58</v>
       </c>
       <c r="H25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s">
         <v>45</v>
-      </c>
-      <c r="I25" t="s">
-        <v>46</v>
       </c>
       <c r="J25" t="s">
         <v>60</v>
@@ -2686,19 +2683,19 @@
         <v>35</v>
       </c>
       <c r="Q25" t="s">
-        <v>49</v>
-      </c>
-      <c r="R25">
-        <v>249.706</v>
-      </c>
-      <c r="S25">
-        <v>-65.2936</v>
-      </c>
-      <c r="T25">
-        <v>-0.293586</v>
+        <v>48</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2721,10 +2718,10 @@
         <v>57</v>
       </c>
       <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
         <v>44</v>
-      </c>
-      <c r="H26" t="s">
-        <v>45</v>
       </c>
       <c r="I26" t="s">
         <v>51</v>
@@ -2751,19 +2748,19 @@
         <v>35</v>
       </c>
       <c r="Q26" t="s">
-        <v>49</v>
-      </c>
-      <c r="R26">
-        <v>249.76</v>
-      </c>
-      <c r="S26">
-        <v>-65.23999999999999</v>
-      </c>
-      <c r="T26">
-        <v>-0.239965</v>
+        <v>48</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2786,7 +2783,7 @@
         <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
         <v>59</v>
@@ -2816,19 +2813,19 @@
         <v>35</v>
       </c>
       <c r="Q27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R27">
-        <v>249.76</v>
-      </c>
-      <c r="S27">
-        <v>-65.23999999999999</v>
-      </c>
-      <c r="T27">
-        <v>-0.239965</v>
+        <v>48</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2854,7 +2851,7 @@
         <v>58</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
         <v>51</v>
@@ -2881,19 +2878,19 @@
         <v>35</v>
       </c>
       <c r="Q28" t="s">
-        <v>49</v>
-      </c>
-      <c r="R28">
-        <v>249.76</v>
-      </c>
-      <c r="S28">
-        <v>-65.23999999999999</v>
-      </c>
-      <c r="T28">
-        <v>-0.239965</v>
+        <v>48</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2916,13 +2913,13 @@
         <v>57</v>
       </c>
       <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
         <v>44</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>45</v>
-      </c>
-      <c r="I29" t="s">
-        <v>46</v>
       </c>
       <c r="J29" t="s">
         <v>60</v>
@@ -2948,17 +2945,17 @@
       <c r="Q29" t="s">
         <v>62</v>
       </c>
-      <c r="R29">
-        <v>249.956</v>
-      </c>
-      <c r="S29">
-        <v>-65.04430000000001</v>
-      </c>
-      <c r="T29">
-        <v>-0.0443087</v>
+      <c r="R29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2981,13 +2978,13 @@
         <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s">
         <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s">
         <v>60</v>
@@ -3013,17 +3010,17 @@
       <c r="Q30" t="s">
         <v>62</v>
       </c>
-      <c r="R30">
-        <v>249.956</v>
-      </c>
-      <c r="S30">
-        <v>-65.04430000000001</v>
-      </c>
-      <c r="T30">
-        <v>-0.0443087</v>
+      <c r="R30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -3049,10 +3046,10 @@
         <v>58</v>
       </c>
       <c r="H31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" t="s">
         <v>45</v>
-      </c>
-      <c r="I31" t="s">
-        <v>46</v>
       </c>
       <c r="J31" t="s">
         <v>60</v>
@@ -3078,17 +3075,17 @@
       <c r="Q31" t="s">
         <v>62</v>
       </c>
-      <c r="R31">
-        <v>249.956</v>
-      </c>
-      <c r="S31">
-        <v>-65.04430000000001</v>
-      </c>
-      <c r="T31">
-        <v>-0.0443087</v>
+      <c r="R31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -3111,10 +3108,10 @@
         <v>57</v>
       </c>
       <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
         <v>44</v>
-      </c>
-      <c r="H32" t="s">
-        <v>45</v>
       </c>
       <c r="I32" t="s">
         <v>51</v>
@@ -3143,17 +3140,17 @@
       <c r="Q32" t="s">
         <v>62</v>
       </c>
-      <c r="R32">
-        <v>249.881</v>
-      </c>
-      <c r="S32">
-        <v>-65.1194</v>
-      </c>
-      <c r="T32">
-        <v>-0.119415</v>
+      <c r="R32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -3176,7 +3173,7 @@
         <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s">
         <v>59</v>
@@ -3208,17 +3205,17 @@
       <c r="Q33" t="s">
         <v>62</v>
       </c>
-      <c r="R33">
-        <v>249.881</v>
-      </c>
-      <c r="S33">
-        <v>-65.1194</v>
-      </c>
-      <c r="T33">
-        <v>-0.119415</v>
+      <c r="R33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -3244,7 +3241,7 @@
         <v>58</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
         <v>51</v>
@@ -3273,17 +3270,17 @@
       <c r="Q34" t="s">
         <v>62</v>
       </c>
-      <c r="R34">
-        <v>249.881</v>
-      </c>
-      <c r="S34">
-        <v>-65.1194</v>
-      </c>
-      <c r="T34">
-        <v>-0.119415</v>
+      <c r="R34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -3306,13 +3303,13 @@
         <v>57</v>
       </c>
       <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
         <v>44</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>45</v>
-      </c>
-      <c r="I35" t="s">
-        <v>46</v>
       </c>
       <c r="J35" t="s">
         <v>60</v>
@@ -3336,19 +3333,19 @@
         <v>35</v>
       </c>
       <c r="Q35" t="s">
-        <v>49</v>
-      </c>
-      <c r="R35">
-        <v>249.779</v>
-      </c>
-      <c r="S35">
-        <v>-65.22069999999999</v>
-      </c>
-      <c r="T35">
-        <v>-0.220657</v>
+        <v>48</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3371,13 +3368,13 @@
         <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s">
         <v>59</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s">
         <v>60</v>
@@ -3401,19 +3398,19 @@
         <v>35</v>
       </c>
       <c r="Q36" t="s">
-        <v>49</v>
-      </c>
-      <c r="R36">
-        <v>249.779</v>
-      </c>
-      <c r="S36">
-        <v>-65.22069999999999</v>
-      </c>
-      <c r="T36">
-        <v>-0.220657</v>
+        <v>48</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3439,10 +3436,10 @@
         <v>58</v>
       </c>
       <c r="H37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" t="s">
         <v>45</v>
-      </c>
-      <c r="I37" t="s">
-        <v>46</v>
       </c>
       <c r="J37" t="s">
         <v>60</v>
@@ -3466,19 +3463,19 @@
         <v>35</v>
       </c>
       <c r="Q37" t="s">
-        <v>49</v>
-      </c>
-      <c r="R37">
-        <v>249.779</v>
-      </c>
-      <c r="S37">
-        <v>-65.22069999999999</v>
-      </c>
-      <c r="T37">
-        <v>-0.220657</v>
+        <v>48</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3501,10 +3498,10 @@
         <v>57</v>
       </c>
       <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" t="s">
         <v>44</v>
-      </c>
-      <c r="H38" t="s">
-        <v>45</v>
       </c>
       <c r="I38" t="s">
         <v>51</v>
@@ -3531,19 +3528,19 @@
         <v>35</v>
       </c>
       <c r="Q38" t="s">
-        <v>49</v>
-      </c>
-      <c r="R38">
-        <v>249.755</v>
-      </c>
-      <c r="S38">
-        <v>-65.24550000000001</v>
-      </c>
-      <c r="T38">
-        <v>-0.245489</v>
+        <v>48</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3566,7 +3563,7 @@
         <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s">
         <v>59</v>
@@ -3596,19 +3593,19 @@
         <v>35</v>
       </c>
       <c r="Q39" t="s">
-        <v>49</v>
-      </c>
-      <c r="R39">
-        <v>249.755</v>
-      </c>
-      <c r="S39">
-        <v>-65.24550000000001</v>
-      </c>
-      <c r="T39">
-        <v>-0.245489</v>
+        <v>48</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3634,7 +3631,7 @@
         <v>58</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
         <v>51</v>
@@ -3661,19 +3658,19 @@
         <v>35</v>
       </c>
       <c r="Q40" t="s">
-        <v>49</v>
-      </c>
-      <c r="R40">
-        <v>249.755</v>
-      </c>
-      <c r="S40">
-        <v>-65.24550000000001</v>
-      </c>
-      <c r="T40">
-        <v>-0.245489</v>
+        <v>48</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3696,13 +3693,13 @@
         <v>57</v>
       </c>
       <c r="G41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" t="s">
         <v>44</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>45</v>
-      </c>
-      <c r="I41" t="s">
-        <v>46</v>
       </c>
       <c r="J41" t="s">
         <v>60</v>
@@ -3728,17 +3725,17 @@
       <c r="Q41" t="s">
         <v>62</v>
       </c>
-      <c r="R41">
-        <v>249.882</v>
-      </c>
-      <c r="S41">
-        <v>-65.1178</v>
-      </c>
-      <c r="T41">
-        <v>-0.11779</v>
+      <c r="R41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3761,13 +3758,13 @@
         <v>57</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s">
         <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s">
         <v>60</v>
@@ -3793,17 +3790,17 @@
       <c r="Q42" t="s">
         <v>62</v>
       </c>
-      <c r="R42">
-        <v>249.882</v>
-      </c>
-      <c r="S42">
-        <v>-65.1178</v>
-      </c>
-      <c r="T42">
-        <v>-0.11779</v>
+      <c r="R42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3829,10 +3826,10 @@
         <v>58</v>
       </c>
       <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s">
         <v>45</v>
-      </c>
-      <c r="I43" t="s">
-        <v>46</v>
       </c>
       <c r="J43" t="s">
         <v>60</v>
@@ -3858,17 +3855,17 @@
       <c r="Q43" t="s">
         <v>62</v>
       </c>
-      <c r="R43">
-        <v>249.882</v>
-      </c>
-      <c r="S43">
-        <v>-65.1178</v>
-      </c>
-      <c r="T43">
-        <v>-0.11779</v>
+      <c r="R43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3891,10 +3888,10 @@
         <v>57</v>
       </c>
       <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s">
         <v>44</v>
-      </c>
-      <c r="H44" t="s">
-        <v>45</v>
       </c>
       <c r="I44" t="s">
         <v>51</v>
@@ -3923,17 +3920,17 @@
       <c r="Q44" t="s">
         <v>62</v>
       </c>
-      <c r="R44">
-        <v>250.21</v>
-      </c>
-      <c r="S44">
-        <v>-64.7899</v>
-      </c>
-      <c r="T44">
-        <v>0.210074</v>
+      <c r="R44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3956,7 +3953,7 @@
         <v>57</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s">
         <v>59</v>
@@ -3988,17 +3985,17 @@
       <c r="Q45" t="s">
         <v>62</v>
       </c>
-      <c r="R45">
-        <v>250.21</v>
-      </c>
-      <c r="S45">
-        <v>-64.7899</v>
-      </c>
-      <c r="T45">
-        <v>0.210074</v>
+      <c r="R45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -4024,7 +4021,7 @@
         <v>58</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s">
         <v>51</v>
@@ -4053,17 +4050,17 @@
       <c r="Q46" t="s">
         <v>62</v>
       </c>
-      <c r="R46">
-        <v>250.21</v>
-      </c>
-      <c r="S46">
-        <v>-64.7899</v>
-      </c>
-      <c r="T46">
-        <v>0.210074</v>
+      <c r="R46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -4086,13 +4083,13 @@
         <v>57</v>
       </c>
       <c r="G47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" t="s">
         <v>44</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>45</v>
-      </c>
-      <c r="I47" t="s">
-        <v>46</v>
       </c>
       <c r="J47" t="s">
         <v>60</v>
@@ -4116,19 +4113,19 @@
         <v>35</v>
       </c>
       <c r="Q47" t="s">
-        <v>49</v>
-      </c>
-      <c r="R47">
-        <v>249.807</v>
-      </c>
-      <c r="S47">
-        <v>-65.1934</v>
-      </c>
-      <c r="T47">
-        <v>-0.193371</v>
+        <v>48</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -4151,13 +4148,13 @@
         <v>57</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s">
         <v>59</v>
       </c>
       <c r="I48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s">
         <v>60</v>
@@ -4181,19 +4178,19 @@
         <v>35</v>
       </c>
       <c r="Q48" t="s">
-        <v>49</v>
-      </c>
-      <c r="R48">
-        <v>249.807</v>
-      </c>
-      <c r="S48">
-        <v>-65.1934</v>
-      </c>
-      <c r="T48">
-        <v>-0.193371</v>
+        <v>48</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -4219,10 +4216,10 @@
         <v>58</v>
       </c>
       <c r="H49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" t="s">
         <v>45</v>
-      </c>
-      <c r="I49" t="s">
-        <v>46</v>
       </c>
       <c r="J49" t="s">
         <v>60</v>
@@ -4246,19 +4243,19 @@
         <v>35</v>
       </c>
       <c r="Q49" t="s">
-        <v>49</v>
-      </c>
-      <c r="R49">
-        <v>249.807</v>
-      </c>
-      <c r="S49">
-        <v>-65.1934</v>
-      </c>
-      <c r="T49">
-        <v>-0.193371</v>
+        <v>48</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -4281,10 +4278,10 @@
         <v>57</v>
       </c>
       <c r="G50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" t="s">
         <v>44</v>
-      </c>
-      <c r="H50" t="s">
-        <v>45</v>
       </c>
       <c r="I50" t="s">
         <v>51</v>
@@ -4311,19 +4308,19 @@
         <v>35</v>
       </c>
       <c r="Q50" t="s">
-        <v>49</v>
-      </c>
-      <c r="R50">
-        <v>250.21</v>
-      </c>
-      <c r="S50">
-        <v>-64.7901</v>
-      </c>
-      <c r="T50">
-        <v>0.209915</v>
+        <v>48</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -4346,7 +4343,7 @@
         <v>57</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s">
         <v>59</v>
@@ -4376,19 +4373,19 @@
         <v>35</v>
       </c>
       <c r="Q51" t="s">
-        <v>49</v>
-      </c>
-      <c r="R51">
-        <v>250.21</v>
-      </c>
-      <c r="S51">
-        <v>-64.7901</v>
-      </c>
-      <c r="T51">
-        <v>0.209915</v>
+        <v>48</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -4414,7 +4411,7 @@
         <v>58</v>
       </c>
       <c r="H52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s">
         <v>51</v>
@@ -4441,19 +4438,19 @@
         <v>35</v>
       </c>
       <c r="Q52" t="s">
-        <v>49</v>
-      </c>
-      <c r="R52">
-        <v>250.21</v>
-      </c>
-      <c r="S52">
-        <v>-64.7901</v>
-      </c>
-      <c r="T52">
-        <v>0.209915</v>
+        <v>48</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -4508,17 +4505,17 @@
       <c r="Q53" t="s">
         <v>36</v>
       </c>
-      <c r="R53">
-        <v>249.881</v>
-      </c>
-      <c r="S53">
-        <v>-100.119</v>
-      </c>
-      <c r="T53">
-        <v>-0.118839</v>
+      <c r="R53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -4526,64 +4523,64 @@
         <v>120</v>
       </c>
       <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
         <v>39</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>40</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>41</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>42</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>43</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>44</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>45</v>
-      </c>
-      <c r="I54" t="s">
-        <v>46</v>
       </c>
       <c r="J54" t="s">
         <v>121</v>
       </c>
       <c r="K54" t="s">
+        <v>47</v>
+      </c>
+      <c r="L54" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" t="s">
+        <v>33</v>
+      </c>
+      <c r="N54" t="s">
+        <v>34</v>
+      </c>
+      <c r="O54" t="s">
+        <v>35</v>
+      </c>
+      <c r="P54" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q54" t="s">
         <v>48</v>
       </c>
-      <c r="L54" t="s">
-        <v>32</v>
-      </c>
-      <c r="M54" t="s">
-        <v>33</v>
-      </c>
-      <c r="N54" t="s">
-        <v>34</v>
-      </c>
-      <c r="O54" t="s">
-        <v>35</v>
-      </c>
-      <c r="P54" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>49</v>
-      </c>
-      <c r="R54">
-        <v>250.105</v>
-      </c>
-      <c r="S54">
-        <v>-134.895</v>
-      </c>
-      <c r="T54">
-        <v>0.1047</v>
+      <c r="R54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4591,25 +4588,25 @@
         <v>122</v>
       </c>
       <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
         <v>39</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>40</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>41</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>42</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>43</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>44</v>
-      </c>
-      <c r="H55" t="s">
-        <v>45</v>
       </c>
       <c r="I55" t="s">
         <v>51</v>
@@ -4618,37 +4615,37 @@
         <v>121</v>
       </c>
       <c r="K55" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" t="s">
+        <v>33</v>
+      </c>
+      <c r="N55" t="s">
+        <v>34</v>
+      </c>
+      <c r="O55" t="s">
+        <v>35</v>
+      </c>
+      <c r="P55" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q55" t="s">
         <v>48</v>
       </c>
-      <c r="L55" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" t="s">
-        <v>33</v>
-      </c>
-      <c r="N55" t="s">
-        <v>34</v>
-      </c>
-      <c r="O55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P55" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>49</v>
-      </c>
-      <c r="R55">
-        <v>249.905</v>
-      </c>
-      <c r="S55">
-        <v>-135.095</v>
-      </c>
-      <c r="T55">
-        <v>-0.0948677</v>
+      <c r="R55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4677,7 +4674,7 @@
         <v>59</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s">
         <v>124</v>
@@ -4703,17 +4700,17 @@
       <c r="Q56" t="s">
         <v>62</v>
       </c>
-      <c r="R56">
-        <v>249.807</v>
-      </c>
-      <c r="S56">
-        <v>-65.19280000000001</v>
-      </c>
-      <c r="T56">
-        <v>-0.192797</v>
+      <c r="R56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4768,17 +4765,17 @@
       <c r="Q57" t="s">
         <v>62</v>
       </c>
-      <c r="R57">
-        <v>249.81</v>
-      </c>
-      <c r="S57">
-        <v>-65.18980000000001</v>
-      </c>
-      <c r="T57">
-        <v>-0.189833</v>
+      <c r="R57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4807,7 +4804,7 @@
         <v>59</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s">
         <v>124</v>
@@ -4833,17 +4830,17 @@
       <c r="Q58" t="s">
         <v>62</v>
       </c>
-      <c r="R58">
-        <v>249.956</v>
-      </c>
-      <c r="S58">
-        <v>-65.04430000000001</v>
-      </c>
-      <c r="T58">
-        <v>-0.0443087</v>
+      <c r="R58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4898,17 +4895,17 @@
       <c r="Q59" t="s">
         <v>62</v>
       </c>
-      <c r="R59">
-        <v>249.881</v>
-      </c>
-      <c r="S59">
-        <v>-65.1194</v>
-      </c>
-      <c r="T59">
-        <v>-0.119415</v>
+      <c r="R59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4937,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s">
         <v>124</v>
@@ -4963,17 +4960,17 @@
       <c r="Q60" t="s">
         <v>62</v>
       </c>
-      <c r="R60">
-        <v>249.882</v>
-      </c>
-      <c r="S60">
-        <v>-65.1178</v>
-      </c>
-      <c r="T60">
-        <v>-0.11779</v>
+      <c r="R60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -5028,17 +5025,17 @@
       <c r="Q61" t="s">
         <v>62</v>
       </c>
-      <c r="R61">
-        <v>250.21</v>
-      </c>
-      <c r="S61">
-        <v>-64.7899</v>
-      </c>
-      <c r="T61">
-        <v>0.210074</v>
+      <c r="R61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -5046,64 +5043,64 @@
         <v>130</v>
       </c>
       <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
         <v>39</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>40</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>41</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>42</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>43</v>
-      </c>
-      <c r="G62" t="s">
-        <v>44</v>
       </c>
       <c r="H62" t="s">
         <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s">
         <v>121</v>
       </c>
       <c r="K62" t="s">
+        <v>47</v>
+      </c>
+      <c r="L62" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" t="s">
+        <v>33</v>
+      </c>
+      <c r="N62" t="s">
+        <v>34</v>
+      </c>
+      <c r="O62" t="s">
+        <v>35</v>
+      </c>
+      <c r="P62" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q62" t="s">
         <v>48</v>
       </c>
-      <c r="L62" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" t="s">
-        <v>33</v>
-      </c>
-      <c r="N62" t="s">
-        <v>34</v>
-      </c>
-      <c r="O62" t="s">
-        <v>35</v>
-      </c>
-      <c r="P62" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>49</v>
-      </c>
-      <c r="R62">
-        <v>250.105</v>
-      </c>
-      <c r="S62">
-        <v>-134.895</v>
-      </c>
-      <c r="T62">
-        <v>0.1047</v>
+      <c r="R62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -5111,64 +5108,64 @@
         <v>131</v>
       </c>
       <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
         <v>39</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>40</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>41</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>42</v>
-      </c>
-      <c r="F63" t="s">
-        <v>43</v>
       </c>
       <c r="G63" t="s">
         <v>58</v>
       </c>
       <c r="H63" t="s">
+        <v>44</v>
+      </c>
+      <c r="I63" t="s">
         <v>45</v>
-      </c>
-      <c r="I63" t="s">
-        <v>46</v>
       </c>
       <c r="J63" t="s">
         <v>121</v>
       </c>
       <c r="K63" t="s">
+        <v>47</v>
+      </c>
+      <c r="L63" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" t="s">
+        <v>33</v>
+      </c>
+      <c r="N63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O63" t="s">
+        <v>35</v>
+      </c>
+      <c r="P63" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q63" t="s">
         <v>48</v>
       </c>
-      <c r="L63" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" t="s">
-        <v>33</v>
-      </c>
-      <c r="N63" t="s">
-        <v>34</v>
-      </c>
-      <c r="O63" t="s">
-        <v>35</v>
-      </c>
-      <c r="P63" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>49</v>
-      </c>
-      <c r="R63">
-        <v>250.105</v>
-      </c>
-      <c r="S63">
-        <v>-134.895</v>
-      </c>
-      <c r="T63">
-        <v>0.1047</v>
+      <c r="R63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -5176,19 +5173,19 @@
         <v>132</v>
       </c>
       <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
         <v>39</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>40</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>41</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>42</v>
-      </c>
-      <c r="F64" t="s">
-        <v>43</v>
       </c>
       <c r="G64" t="s">
         <v>58</v>
@@ -5197,43 +5194,43 @@
         <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s">
         <v>121</v>
       </c>
       <c r="K64" t="s">
+        <v>47</v>
+      </c>
+      <c r="L64" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" t="s">
+        <v>33</v>
+      </c>
+      <c r="N64" t="s">
+        <v>34</v>
+      </c>
+      <c r="O64" t="s">
+        <v>35</v>
+      </c>
+      <c r="P64" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q64" t="s">
         <v>48</v>
       </c>
-      <c r="L64" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" t="s">
-        <v>33</v>
-      </c>
-      <c r="N64" t="s">
-        <v>34</v>
-      </c>
-      <c r="O64" t="s">
-        <v>35</v>
-      </c>
-      <c r="P64" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>49</v>
-      </c>
-      <c r="R64">
-        <v>250.105</v>
-      </c>
-      <c r="S64">
-        <v>-134.895</v>
-      </c>
-      <c r="T64">
-        <v>0.1047</v>
+      <c r="R64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -5241,22 +5238,22 @@
         <v>133</v>
       </c>
       <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" t="s">
         <v>39</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>40</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>41</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>42</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>43</v>
-      </c>
-      <c r="G65" t="s">
-        <v>44</v>
       </c>
       <c r="H65" t="s">
         <v>59</v>
@@ -5268,37 +5265,37 @@
         <v>121</v>
       </c>
       <c r="K65" t="s">
+        <v>47</v>
+      </c>
+      <c r="L65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" t="s">
+        <v>33</v>
+      </c>
+      <c r="N65" t="s">
+        <v>34</v>
+      </c>
+      <c r="O65" t="s">
+        <v>35</v>
+      </c>
+      <c r="P65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q65" t="s">
         <v>48</v>
       </c>
-      <c r="L65" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" t="s">
-        <v>33</v>
-      </c>
-      <c r="N65" t="s">
-        <v>34</v>
-      </c>
-      <c r="O65" t="s">
-        <v>35</v>
-      </c>
-      <c r="P65" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>49</v>
-      </c>
-      <c r="R65">
-        <v>249.905</v>
-      </c>
-      <c r="S65">
-        <v>-135.095</v>
-      </c>
-      <c r="T65">
-        <v>-0.0948677</v>
+      <c r="R65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -5306,25 +5303,25 @@
         <v>134</v>
       </c>
       <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s">
         <v>39</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>40</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>41</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>42</v>
-      </c>
-      <c r="F66" t="s">
-        <v>43</v>
       </c>
       <c r="G66" t="s">
         <v>58</v>
       </c>
       <c r="H66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I66" t="s">
         <v>51</v>
@@ -5333,37 +5330,37 @@
         <v>121</v>
       </c>
       <c r="K66" t="s">
+        <v>47</v>
+      </c>
+      <c r="L66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" t="s">
+        <v>33</v>
+      </c>
+      <c r="N66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q66" t="s">
         <v>48</v>
       </c>
-      <c r="L66" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" t="s">
-        <v>33</v>
-      </c>
-      <c r="N66" t="s">
-        <v>34</v>
-      </c>
-      <c r="O66" t="s">
-        <v>35</v>
-      </c>
-      <c r="P66" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>49</v>
-      </c>
-      <c r="R66">
-        <v>249.905</v>
-      </c>
-      <c r="S66">
-        <v>-135.095</v>
-      </c>
-      <c r="T66">
-        <v>-0.0948677</v>
+      <c r="R66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -5371,19 +5368,19 @@
         <v>135</v>
       </c>
       <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
         <v>39</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>40</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>41</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>42</v>
-      </c>
-      <c r="F67" t="s">
-        <v>43</v>
       </c>
       <c r="G67" t="s">
         <v>58</v>
@@ -5398,37 +5395,37 @@
         <v>121</v>
       </c>
       <c r="K67" t="s">
+        <v>47</v>
+      </c>
+      <c r="L67" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" t="s">
+        <v>33</v>
+      </c>
+      <c r="N67" t="s">
+        <v>34</v>
+      </c>
+      <c r="O67" t="s">
+        <v>35</v>
+      </c>
+      <c r="P67" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67" t="s">
         <v>48</v>
       </c>
-      <c r="L67" t="s">
-        <v>32</v>
-      </c>
-      <c r="M67" t="s">
-        <v>33</v>
-      </c>
-      <c r="N67" t="s">
-        <v>34</v>
-      </c>
-      <c r="O67" t="s">
-        <v>35</v>
-      </c>
-      <c r="P67" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>49</v>
-      </c>
-      <c r="R67">
-        <v>249.905</v>
-      </c>
-      <c r="S67">
-        <v>-135.095</v>
-      </c>
-      <c r="T67">
-        <v>-0.0948677</v>
+      <c r="R67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -5451,13 +5448,13 @@
         <v>57</v>
       </c>
       <c r="G68" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" t="s">
         <v>44</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>45</v>
-      </c>
-      <c r="I68" t="s">
-        <v>46</v>
       </c>
       <c r="J68" t="s">
         <v>124</v>
@@ -5483,17 +5480,17 @@
       <c r="Q68" t="s">
         <v>62</v>
       </c>
-      <c r="R68">
-        <v>249.807</v>
-      </c>
-      <c r="S68">
-        <v>-65.19280000000001</v>
-      </c>
-      <c r="T68">
-        <v>-0.192797</v>
+      <c r="R68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -5516,13 +5513,13 @@
         <v>57</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H69" t="s">
         <v>59</v>
       </c>
       <c r="I69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J69" t="s">
         <v>124</v>
@@ -5548,17 +5545,17 @@
       <c r="Q69" t="s">
         <v>62</v>
       </c>
-      <c r="R69">
-        <v>249.807</v>
-      </c>
-      <c r="S69">
-        <v>-65.19280000000001</v>
-      </c>
-      <c r="T69">
-        <v>-0.192797</v>
+      <c r="R69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -5584,10 +5581,10 @@
         <v>58</v>
       </c>
       <c r="H70" t="s">
+        <v>44</v>
+      </c>
+      <c r="I70" t="s">
         <v>45</v>
-      </c>
-      <c r="I70" t="s">
-        <v>46</v>
       </c>
       <c r="J70" t="s">
         <v>124</v>
@@ -5613,17 +5610,17 @@
       <c r="Q70" t="s">
         <v>62</v>
       </c>
-      <c r="R70">
-        <v>249.807</v>
-      </c>
-      <c r="S70">
-        <v>-65.19280000000001</v>
-      </c>
-      <c r="T70">
-        <v>-0.192797</v>
+      <c r="R70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -5646,10 +5643,10 @@
         <v>57</v>
       </c>
       <c r="G71" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" t="s">
         <v>44</v>
-      </c>
-      <c r="H71" t="s">
-        <v>45</v>
       </c>
       <c r="I71" t="s">
         <v>51</v>
@@ -5678,17 +5675,17 @@
       <c r="Q71" t="s">
         <v>62</v>
       </c>
-      <c r="R71">
-        <v>249.81</v>
-      </c>
-      <c r="S71">
-        <v>-65.18980000000001</v>
-      </c>
-      <c r="T71">
-        <v>-0.189816</v>
+      <c r="R71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -5711,7 +5708,7 @@
         <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s">
         <v>59</v>
@@ -5743,17 +5740,17 @@
       <c r="Q72" t="s">
         <v>62</v>
       </c>
-      <c r="R72">
-        <v>249.81</v>
-      </c>
-      <c r="S72">
-        <v>-65.18980000000001</v>
-      </c>
-      <c r="T72">
-        <v>-0.189816</v>
+      <c r="R72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5779,7 +5776,7 @@
         <v>58</v>
       </c>
       <c r="H73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I73" t="s">
         <v>51</v>
@@ -5809,21 +5806,21 @@
         <v>62</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:21">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
         <v>53</v>
@@ -5841,13 +5838,13 @@
         <v>57</v>
       </c>
       <c r="G74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" t="s">
         <v>44</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>45</v>
-      </c>
-      <c r="I74" t="s">
-        <v>46</v>
       </c>
       <c r="J74" t="s">
         <v>124</v>
@@ -5871,24 +5868,24 @@
         <v>35</v>
       </c>
       <c r="Q74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U74" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
         <v>53</v>
@@ -5906,13 +5903,13 @@
         <v>57</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H75" t="s">
         <v>59</v>
       </c>
       <c r="I75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J75" t="s">
         <v>124</v>
@@ -5936,24 +5933,24 @@
         <v>35</v>
       </c>
       <c r="Q75" t="s">
-        <v>49</v>
-      </c>
-      <c r="R75">
-        <v>249.706</v>
-      </c>
-      <c r="S75">
-        <v>-65.2936</v>
-      </c>
-      <c r="T75">
-        <v>-0.293586</v>
+        <v>48</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:21">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
         <v>53</v>
@@ -5974,10 +5971,10 @@
         <v>58</v>
       </c>
       <c r="H76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s">
         <v>45</v>
-      </c>
-      <c r="I76" t="s">
-        <v>46</v>
       </c>
       <c r="J76" t="s">
         <v>124</v>
@@ -6001,24 +5998,24 @@
         <v>35</v>
       </c>
       <c r="Q76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
         <v>53</v>
@@ -6036,10 +6033,10 @@
         <v>57</v>
       </c>
       <c r="G77" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" t="s">
         <v>44</v>
-      </c>
-      <c r="H77" t="s">
-        <v>45</v>
       </c>
       <c r="I77" t="s">
         <v>51</v>
@@ -6066,24 +6063,24 @@
         <v>35</v>
       </c>
       <c r="Q77" t="s">
-        <v>49</v>
-      </c>
-      <c r="R77">
-        <v>249.76</v>
-      </c>
-      <c r="S77">
-        <v>-65.23999999999999</v>
-      </c>
-      <c r="T77">
-        <v>-0.239965</v>
+        <v>48</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:21">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
         <v>53</v>
@@ -6101,7 +6098,7 @@
         <v>57</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H78" t="s">
         <v>59</v>
@@ -6131,24 +6128,24 @@
         <v>35</v>
       </c>
       <c r="Q78" t="s">
-        <v>49</v>
-      </c>
-      <c r="R78">
-        <v>249.76</v>
-      </c>
-      <c r="S78">
-        <v>-65.23999999999999</v>
-      </c>
-      <c r="T78">
-        <v>-0.239965</v>
+        <v>48</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:21">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
         <v>53</v>
@@ -6169,7 +6166,7 @@
         <v>58</v>
       </c>
       <c r="H79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I79" t="s">
         <v>51</v>
@@ -6196,24 +6193,24 @@
         <v>35</v>
       </c>
       <c r="Q79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:21">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
         <v>65</v>
@@ -6231,13 +6228,13 @@
         <v>57</v>
       </c>
       <c r="G80" t="s">
+        <v>43</v>
+      </c>
+      <c r="H80" t="s">
         <v>44</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>45</v>
-      </c>
-      <c r="I80" t="s">
-        <v>46</v>
       </c>
       <c r="J80" t="s">
         <v>124</v>
@@ -6263,22 +6260,22 @@
       <c r="Q80" t="s">
         <v>62</v>
       </c>
-      <c r="R80">
-        <v>249.956</v>
-      </c>
-      <c r="S80">
-        <v>-65.04430000000001</v>
-      </c>
-      <c r="T80">
-        <v>-0.0443087</v>
+      <c r="R80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
         <v>65</v>
@@ -6296,13 +6293,13 @@
         <v>57</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s">
         <v>59</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J81" t="s">
         <v>124</v>
@@ -6328,22 +6325,22 @@
       <c r="Q81" t="s">
         <v>62</v>
       </c>
-      <c r="R81">
-        <v>249.956</v>
-      </c>
-      <c r="S81">
-        <v>-65.04430000000001</v>
-      </c>
-      <c r="T81">
-        <v>-0.0443087</v>
+      <c r="R81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
         <v>65</v>
@@ -6364,10 +6361,10 @@
         <v>58</v>
       </c>
       <c r="H82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I82" t="s">
         <v>45</v>
-      </c>
-      <c r="I82" t="s">
-        <v>46</v>
       </c>
       <c r="J82" t="s">
         <v>124</v>
@@ -6393,22 +6390,22 @@
       <c r="Q82" t="s">
         <v>62</v>
       </c>
-      <c r="R82">
-        <v>249.956</v>
-      </c>
-      <c r="S82">
-        <v>-65.04430000000001</v>
-      </c>
-      <c r="T82">
-        <v>-0.0443087</v>
+      <c r="R82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
         <v>65</v>
@@ -6426,10 +6423,10 @@
         <v>57</v>
       </c>
       <c r="G83" t="s">
+        <v>43</v>
+      </c>
+      <c r="H83" t="s">
         <v>44</v>
-      </c>
-      <c r="H83" t="s">
-        <v>45</v>
       </c>
       <c r="I83" t="s">
         <v>51</v>
@@ -6459,21 +6456,21 @@
         <v>62</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:21">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
         <v>65</v>
@@ -6491,7 +6488,7 @@
         <v>57</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H84" t="s">
         <v>59</v>
@@ -6524,21 +6521,21 @@
         <v>62</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:21">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
         <v>65</v>
@@ -6559,7 +6556,7 @@
         <v>58</v>
       </c>
       <c r="H85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I85" t="s">
         <v>51</v>
@@ -6589,21 +6586,21 @@
         <v>62</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:21">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B86" t="s">
         <v>65</v>
@@ -6621,13 +6618,13 @@
         <v>57</v>
       </c>
       <c r="G86" t="s">
+        <v>43</v>
+      </c>
+      <c r="H86" t="s">
         <v>44</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>45</v>
-      </c>
-      <c r="I86" t="s">
-        <v>46</v>
       </c>
       <c r="J86" t="s">
         <v>124</v>
@@ -6651,24 +6648,24 @@
         <v>35</v>
       </c>
       <c r="Q86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B87" t="s">
         <v>65</v>
@@ -6686,13 +6683,13 @@
         <v>57</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H87" t="s">
         <v>59</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J87" t="s">
         <v>124</v>
@@ -6716,24 +6713,24 @@
         <v>35</v>
       </c>
       <c r="Q87" t="s">
-        <v>49</v>
-      </c>
-      <c r="R87">
-        <v>249.779</v>
-      </c>
-      <c r="S87">
-        <v>-65.22069999999999</v>
-      </c>
-      <c r="T87">
-        <v>-0.220657</v>
+        <v>48</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:21">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
         <v>65</v>
@@ -6754,10 +6751,10 @@
         <v>58</v>
       </c>
       <c r="H88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I88" t="s">
         <v>45</v>
-      </c>
-      <c r="I88" t="s">
-        <v>46</v>
       </c>
       <c r="J88" t="s">
         <v>124</v>
@@ -6781,24 +6778,24 @@
         <v>35</v>
       </c>
       <c r="Q88" t="s">
-        <v>49</v>
-      </c>
-      <c r="R88">
-        <v>249.779</v>
-      </c>
-      <c r="S88">
-        <v>-65.22069999999999</v>
-      </c>
-      <c r="T88">
-        <v>-0.220657</v>
+        <v>48</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:21">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B89" t="s">
         <v>65</v>
@@ -6816,10 +6813,10 @@
         <v>57</v>
       </c>
       <c r="G89" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" t="s">
         <v>44</v>
-      </c>
-      <c r="H89" t="s">
-        <v>45</v>
       </c>
       <c r="I89" t="s">
         <v>51</v>
@@ -6846,24 +6843,24 @@
         <v>35</v>
       </c>
       <c r="Q89" t="s">
-        <v>49</v>
-      </c>
-      <c r="R89">
-        <v>249.755</v>
-      </c>
-      <c r="S89">
-        <v>-65.24550000000001</v>
-      </c>
-      <c r="T89">
-        <v>-0.245489</v>
+        <v>48</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B90" t="s">
         <v>65</v>
@@ -6881,7 +6878,7 @@
         <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H90" t="s">
         <v>59</v>
@@ -6911,24 +6908,24 @@
         <v>35</v>
       </c>
       <c r="Q90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:21">
       <c r="A91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B91" t="s">
         <v>65</v>
@@ -6949,7 +6946,7 @@
         <v>58</v>
       </c>
       <c r="H91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I91" t="s">
         <v>51</v>
@@ -6976,24 +6973,24 @@
         <v>35</v>
       </c>
       <c r="Q91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:21">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B92" t="s">
         <v>71</v>
@@ -7011,13 +7008,13 @@
         <v>57</v>
       </c>
       <c r="G92" t="s">
+        <v>43</v>
+      </c>
+      <c r="H92" t="s">
         <v>44</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>45</v>
-      </c>
-      <c r="I92" t="s">
-        <v>46</v>
       </c>
       <c r="J92" t="s">
         <v>124</v>
@@ -7044,21 +7041,21 @@
         <v>62</v>
       </c>
       <c r="R92" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:21">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B93" t="s">
         <v>71</v>
@@ -7076,13 +7073,13 @@
         <v>57</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H93" t="s">
         <v>59</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J93" t="s">
         <v>124</v>
@@ -7109,21 +7106,21 @@
         <v>62</v>
       </c>
       <c r="R93" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:21">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B94" t="s">
         <v>71</v>
@@ -7144,10 +7141,10 @@
         <v>58</v>
       </c>
       <c r="H94" t="s">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s">
         <v>45</v>
-      </c>
-      <c r="I94" t="s">
-        <v>46</v>
       </c>
       <c r="J94" t="s">
         <v>124</v>
@@ -7173,22 +7170,22 @@
       <c r="Q94" t="s">
         <v>62</v>
       </c>
-      <c r="R94">
-        <v>249.882</v>
-      </c>
-      <c r="S94">
-        <v>-65.1178</v>
-      </c>
-      <c r="T94">
-        <v>-0.11779</v>
+      <c r="R94" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:21">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B95" t="s">
         <v>71</v>
@@ -7206,10 +7203,10 @@
         <v>57</v>
       </c>
       <c r="G95" t="s">
+        <v>43</v>
+      </c>
+      <c r="H95" t="s">
         <v>44</v>
-      </c>
-      <c r="H95" t="s">
-        <v>45</v>
       </c>
       <c r="I95" t="s">
         <v>51</v>
@@ -7239,21 +7236,21 @@
         <v>62</v>
       </c>
       <c r="R95" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:21">
       <c r="A96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
         <v>71</v>
@@ -7271,7 +7268,7 @@
         <v>57</v>
       </c>
       <c r="G96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H96" t="s">
         <v>59</v>
@@ -7304,21 +7301,21 @@
         <v>62</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:21">
       <c r="A97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B97" t="s">
         <v>71</v>
@@ -7339,7 +7336,7 @@
         <v>58</v>
       </c>
       <c r="H97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I97" t="s">
         <v>51</v>
@@ -7369,21 +7366,21 @@
         <v>62</v>
       </c>
       <c r="R97" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:21">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B98" t="s">
         <v>71</v>
@@ -7401,13 +7398,13 @@
         <v>57</v>
       </c>
       <c r="G98" t="s">
+        <v>43</v>
+      </c>
+      <c r="H98" t="s">
         <v>44</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>45</v>
-      </c>
-      <c r="I98" t="s">
-        <v>46</v>
       </c>
       <c r="J98" t="s">
         <v>124</v>
@@ -7431,24 +7428,24 @@
         <v>35</v>
       </c>
       <c r="Q98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U98" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:21">
       <c r="A99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B99" t="s">
         <v>71</v>
@@ -7466,13 +7463,13 @@
         <v>57</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s">
         <v>59</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J99" t="s">
         <v>124</v>
@@ -7496,24 +7493,24 @@
         <v>35</v>
       </c>
       <c r="Q99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R99" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:21">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B100" t="s">
         <v>71</v>
@@ -7534,10 +7531,10 @@
         <v>58</v>
       </c>
       <c r="H100" t="s">
+        <v>44</v>
+      </c>
+      <c r="I100" t="s">
         <v>45</v>
-      </c>
-      <c r="I100" t="s">
-        <v>46</v>
       </c>
       <c r="J100" t="s">
         <v>124</v>
@@ -7561,24 +7558,24 @@
         <v>35</v>
       </c>
       <c r="Q100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R100" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:21">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B101" t="s">
         <v>71</v>
@@ -7596,10 +7593,10 @@
         <v>57</v>
       </c>
       <c r="G101" t="s">
+        <v>43</v>
+      </c>
+      <c r="H101" t="s">
         <v>44</v>
-      </c>
-      <c r="H101" t="s">
-        <v>45</v>
       </c>
       <c r="I101" t="s">
         <v>51</v>
@@ -7626,24 +7623,24 @@
         <v>35</v>
       </c>
       <c r="Q101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R101" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U101" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:21">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B102" t="s">
         <v>71</v>
@@ -7661,7 +7658,7 @@
         <v>57</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H102" t="s">
         <v>59</v>
@@ -7691,24 +7688,24 @@
         <v>35</v>
       </c>
       <c r="Q102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R102" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U102" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:21">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B103" t="s">
         <v>71</v>
@@ -7729,7 +7726,7 @@
         <v>58</v>
       </c>
       <c r="H103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I103" t="s">
         <v>51</v>
@@ -7756,24 +7753,24 @@
         <v>35</v>
       </c>
       <c r="Q103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U103" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:21">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
         <v>22</v>
@@ -7824,151 +7821,151 @@
         <v>36</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U104" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:21">
       <c r="A105" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" t="s">
         <v>39</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>40</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>41</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>42</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>43</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>44</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>45</v>
       </c>
-      <c r="I105" t="s">
-        <v>46</v>
-      </c>
       <c r="J105" t="s">
+        <v>47</v>
+      </c>
+      <c r="K105" t="s">
+        <v>47</v>
+      </c>
+      <c r="L105" t="s">
+        <v>32</v>
+      </c>
+      <c r="M105" t="s">
+        <v>33</v>
+      </c>
+      <c r="N105" t="s">
+        <v>34</v>
+      </c>
+      <c r="O105" t="s">
+        <v>35</v>
+      </c>
+      <c r="P105" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q105" t="s">
         <v>48</v>
       </c>
-      <c r="K105" t="s">
-        <v>48</v>
-      </c>
-      <c r="L105" t="s">
-        <v>32</v>
-      </c>
-      <c r="M105" t="s">
-        <v>33</v>
-      </c>
-      <c r="N105" t="s">
-        <v>34</v>
-      </c>
-      <c r="O105" t="s">
-        <v>35</v>
-      </c>
-      <c r="P105" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>49</v>
-      </c>
       <c r="R105" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U105" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:21">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" t="s">
         <v>39</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>40</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>41</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>42</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>43</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>44</v>
-      </c>
-      <c r="H106" t="s">
-        <v>45</v>
       </c>
       <c r="I106" t="s">
         <v>51</v>
       </c>
       <c r="J106" t="s">
+        <v>47</v>
+      </c>
+      <c r="K106" t="s">
+        <v>47</v>
+      </c>
+      <c r="L106" t="s">
+        <v>32</v>
+      </c>
+      <c r="M106" t="s">
+        <v>33</v>
+      </c>
+      <c r="N106" t="s">
+        <v>34</v>
+      </c>
+      <c r="O106" t="s">
+        <v>35</v>
+      </c>
+      <c r="P106" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q106" t="s">
         <v>48</v>
       </c>
-      <c r="K106" t="s">
-        <v>48</v>
-      </c>
-      <c r="L106" t="s">
-        <v>32</v>
-      </c>
-      <c r="M106" t="s">
-        <v>33</v>
-      </c>
-      <c r="N106" t="s">
-        <v>34</v>
-      </c>
-      <c r="O106" t="s">
-        <v>35</v>
-      </c>
-      <c r="P106" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>49</v>
-      </c>
-      <c r="R106">
-        <v>249.905</v>
-      </c>
-      <c r="S106">
-        <v>-135.095</v>
-      </c>
-      <c r="T106">
-        <v>-0.0948677</v>
+      <c r="R106" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U106" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:21">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107" t="s">
         <v>53</v>
@@ -7992,7 +7989,7 @@
         <v>59</v>
       </c>
       <c r="I107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J107" t="s">
         <v>61</v>
@@ -8018,22 +8015,22 @@
       <c r="Q107" t="s">
         <v>62</v>
       </c>
-      <c r="R107">
-        <v>249.807</v>
-      </c>
-      <c r="S107">
-        <v>-65.19280000000001</v>
-      </c>
-      <c r="T107">
-        <v>-0.192797</v>
+      <c r="R107" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:21">
       <c r="A108" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
         <v>53</v>
@@ -8084,21 +8081,21 @@
         <v>62</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U108" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:21">
       <c r="A109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B109" t="s">
         <v>65</v>
@@ -8122,7 +8119,7 @@
         <v>59</v>
       </c>
       <c r="I109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J109" t="s">
         <v>61</v>
@@ -8149,21 +8146,21 @@
         <v>62</v>
       </c>
       <c r="R109" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U109" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:21">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s">
         <v>65</v>
@@ -8214,21 +8211,21 @@
         <v>62</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U110" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:21">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B111" t="s">
         <v>71</v>
@@ -8252,7 +8249,7 @@
         <v>59</v>
       </c>
       <c r="I111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J111" t="s">
         <v>61</v>
@@ -8279,21 +8276,21 @@
         <v>62</v>
       </c>
       <c r="R111" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U111" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:21">
       <c r="A112" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B112" t="s">
         <v>71</v>
@@ -8344,166 +8341,166 @@
         <v>62</v>
       </c>
       <c r="R112" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U112" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:21">
       <c r="A113" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B113" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" t="s">
         <v>39</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>40</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>41</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>42</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>43</v>
-      </c>
-      <c r="G113" t="s">
-        <v>44</v>
       </c>
       <c r="H113" t="s">
         <v>59</v>
       </c>
       <c r="I113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J113" t="s">
+        <v>47</v>
+      </c>
+      <c r="K113" t="s">
+        <v>47</v>
+      </c>
+      <c r="L113" t="s">
+        <v>32</v>
+      </c>
+      <c r="M113" t="s">
+        <v>33</v>
+      </c>
+      <c r="N113" t="s">
+        <v>34</v>
+      </c>
+      <c r="O113" t="s">
+        <v>35</v>
+      </c>
+      <c r="P113" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q113" t="s">
         <v>48</v>
       </c>
-      <c r="K113" t="s">
-        <v>48</v>
-      </c>
-      <c r="L113" t="s">
-        <v>32</v>
-      </c>
-      <c r="M113" t="s">
-        <v>33</v>
-      </c>
-      <c r="N113" t="s">
-        <v>34</v>
-      </c>
-      <c r="O113" t="s">
-        <v>35</v>
-      </c>
-      <c r="P113" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>49</v>
-      </c>
       <c r="R113" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T113" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U113" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:21">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" t="s">
         <v>39</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>40</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>41</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>42</v>
-      </c>
-      <c r="F114" t="s">
-        <v>43</v>
       </c>
       <c r="G114" t="s">
         <v>58</v>
       </c>
       <c r="H114" t="s">
+        <v>44</v>
+      </c>
+      <c r="I114" t="s">
         <v>45</v>
       </c>
-      <c r="I114" t="s">
-        <v>46</v>
-      </c>
       <c r="J114" t="s">
+        <v>47</v>
+      </c>
+      <c r="K114" t="s">
+        <v>47</v>
+      </c>
+      <c r="L114" t="s">
+        <v>32</v>
+      </c>
+      <c r="M114" t="s">
+        <v>33</v>
+      </c>
+      <c r="N114" t="s">
+        <v>34</v>
+      </c>
+      <c r="O114" t="s">
+        <v>35</v>
+      </c>
+      <c r="P114" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q114" t="s">
         <v>48</v>
       </c>
-      <c r="K114" t="s">
-        <v>48</v>
-      </c>
-      <c r="L114" t="s">
-        <v>32</v>
-      </c>
-      <c r="M114" t="s">
-        <v>33</v>
-      </c>
-      <c r="N114" t="s">
-        <v>34</v>
-      </c>
-      <c r="O114" t="s">
-        <v>35</v>
-      </c>
-      <c r="P114" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>49</v>
-      </c>
       <c r="R114" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U114" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:21">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B115" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" t="s">
         <v>39</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>40</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>41</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>42</v>
-      </c>
-      <c r="F115" t="s">
-        <v>43</v>
       </c>
       <c r="G115" t="s">
         <v>58</v>
@@ -8512,66 +8509,66 @@
         <v>59</v>
       </c>
       <c r="I115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J115" t="s">
+        <v>47</v>
+      </c>
+      <c r="K115" t="s">
+        <v>47</v>
+      </c>
+      <c r="L115" t="s">
+        <v>32</v>
+      </c>
+      <c r="M115" t="s">
+        <v>33</v>
+      </c>
+      <c r="N115" t="s">
+        <v>34</v>
+      </c>
+      <c r="O115" t="s">
+        <v>35</v>
+      </c>
+      <c r="P115" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q115" t="s">
         <v>48</v>
       </c>
-      <c r="K115" t="s">
-        <v>48</v>
-      </c>
-      <c r="L115" t="s">
-        <v>32</v>
-      </c>
-      <c r="M115" t="s">
-        <v>33</v>
-      </c>
-      <c r="N115" t="s">
-        <v>34</v>
-      </c>
-      <c r="O115" t="s">
-        <v>35</v>
-      </c>
-      <c r="P115" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>49</v>
-      </c>
       <c r="R115" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:21">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B116" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" t="s">
         <v>39</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>40</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>41</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>42</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>43</v>
-      </c>
-      <c r="G116" t="s">
-        <v>44</v>
       </c>
       <c r="H116" t="s">
         <v>59</v>
@@ -8580,125 +8577,125 @@
         <v>51</v>
       </c>
       <c r="J116" t="s">
+        <v>47</v>
+      </c>
+      <c r="K116" t="s">
+        <v>47</v>
+      </c>
+      <c r="L116" t="s">
+        <v>32</v>
+      </c>
+      <c r="M116" t="s">
+        <v>33</v>
+      </c>
+      <c r="N116" t="s">
+        <v>34</v>
+      </c>
+      <c r="O116" t="s">
+        <v>35</v>
+      </c>
+      <c r="P116" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q116" t="s">
         <v>48</v>
       </c>
-      <c r="K116" t="s">
-        <v>48</v>
-      </c>
-      <c r="L116" t="s">
-        <v>32</v>
-      </c>
-      <c r="M116" t="s">
-        <v>33</v>
-      </c>
-      <c r="N116" t="s">
-        <v>34</v>
-      </c>
-      <c r="O116" t="s">
-        <v>35</v>
-      </c>
-      <c r="P116" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>49</v>
-      </c>
       <c r="R116" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U116" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:21">
       <c r="A117" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B117" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" t="s">
         <v>39</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>40</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>41</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>42</v>
-      </c>
-      <c r="F117" t="s">
-        <v>43</v>
       </c>
       <c r="G117" t="s">
         <v>58</v>
       </c>
       <c r="H117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I117" t="s">
         <v>51</v>
       </c>
       <c r="J117" t="s">
+        <v>47</v>
+      </c>
+      <c r="K117" t="s">
+        <v>47</v>
+      </c>
+      <c r="L117" t="s">
+        <v>32</v>
+      </c>
+      <c r="M117" t="s">
+        <v>33</v>
+      </c>
+      <c r="N117" t="s">
+        <v>34</v>
+      </c>
+      <c r="O117" t="s">
+        <v>35</v>
+      </c>
+      <c r="P117" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q117" t="s">
         <v>48</v>
       </c>
-      <c r="K117" t="s">
-        <v>48</v>
-      </c>
-      <c r="L117" t="s">
-        <v>32</v>
-      </c>
-      <c r="M117" t="s">
-        <v>33</v>
-      </c>
-      <c r="N117" t="s">
-        <v>34</v>
-      </c>
-      <c r="O117" t="s">
-        <v>35</v>
-      </c>
-      <c r="P117" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>49</v>
-      </c>
       <c r="R117" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T117" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U117" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:21">
       <c r="A118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B118" t="s">
+        <v>38</v>
+      </c>
+      <c r="C118" t="s">
         <v>39</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>40</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>41</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>42</v>
-      </c>
-      <c r="F118" t="s">
-        <v>43</v>
       </c>
       <c r="G118" t="s">
         <v>58</v>
@@ -8710,45 +8707,45 @@
         <v>51</v>
       </c>
       <c r="J118" t="s">
+        <v>47</v>
+      </c>
+      <c r="K118" t="s">
+        <v>47</v>
+      </c>
+      <c r="L118" t="s">
+        <v>32</v>
+      </c>
+      <c r="M118" t="s">
+        <v>33</v>
+      </c>
+      <c r="N118" t="s">
+        <v>34</v>
+      </c>
+      <c r="O118" t="s">
+        <v>35</v>
+      </c>
+      <c r="P118" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q118" t="s">
         <v>48</v>
       </c>
-      <c r="K118" t="s">
-        <v>48</v>
-      </c>
-      <c r="L118" t="s">
-        <v>32</v>
-      </c>
-      <c r="M118" t="s">
-        <v>33</v>
-      </c>
-      <c r="N118" t="s">
-        <v>34</v>
-      </c>
-      <c r="O118" t="s">
-        <v>35</v>
-      </c>
-      <c r="P118" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>49</v>
-      </c>
       <c r="R118" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U118" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:21">
       <c r="A119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B119" t="s">
         <v>53</v>
@@ -8766,13 +8763,13 @@
         <v>57</v>
       </c>
       <c r="G119" t="s">
+        <v>43</v>
+      </c>
+      <c r="H119" t="s">
         <v>44</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>45</v>
-      </c>
-      <c r="I119" t="s">
-        <v>46</v>
       </c>
       <c r="J119" t="s">
         <v>61</v>
@@ -8799,21 +8796,21 @@
         <v>62</v>
       </c>
       <c r="R119" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U119" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:21">
       <c r="A120" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B120" t="s">
         <v>53</v>
@@ -8831,13 +8828,13 @@
         <v>57</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H120" t="s">
         <v>59</v>
       </c>
       <c r="I120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J120" t="s">
         <v>61</v>
@@ -8864,21 +8861,21 @@
         <v>62</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U120" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:21">
       <c r="A121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B121" t="s">
         <v>53</v>
@@ -8899,10 +8896,10 @@
         <v>58</v>
       </c>
       <c r="H121" t="s">
+        <v>44</v>
+      </c>
+      <c r="I121" t="s">
         <v>45</v>
-      </c>
-      <c r="I121" t="s">
-        <v>46</v>
       </c>
       <c r="J121" t="s">
         <v>61</v>
@@ -8929,21 +8926,21 @@
         <v>62</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:21">
       <c r="A122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
         <v>53</v>
@@ -8961,10 +8958,10 @@
         <v>57</v>
       </c>
       <c r="G122" t="s">
+        <v>43</v>
+      </c>
+      <c r="H122" t="s">
         <v>44</v>
-      </c>
-      <c r="H122" t="s">
-        <v>45</v>
       </c>
       <c r="I122" t="s">
         <v>51</v>
@@ -8994,21 +8991,21 @@
         <v>62</v>
       </c>
       <c r="R122" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U122" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:21">
       <c r="A123" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B123" t="s">
         <v>53</v>
@@ -9026,7 +9023,7 @@
         <v>57</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H123" t="s">
         <v>59</v>
@@ -9059,21 +9056,21 @@
         <v>62</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T123" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U123" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:21">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B124" t="s">
         <v>53</v>
@@ -9094,7 +9091,7 @@
         <v>58</v>
       </c>
       <c r="H124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I124" t="s">
         <v>51</v>
@@ -9124,21 +9121,21 @@
         <v>62</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U124" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:21">
       <c r="A125" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B125" t="s">
         <v>53</v>
@@ -9156,14 +9153,14 @@
         <v>57</v>
       </c>
       <c r="G125" t="s">
+        <v>43</v>
+      </c>
+      <c r="H125" t="s">
         <v>44</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>45</v>
       </c>
-      <c r="I125" t="s">
-        <v>46</v>
-      </c>
       <c r="J125" t="s">
         <v>61</v>
       </c>
@@ -9186,24 +9183,24 @@
         <v>35</v>
       </c>
       <c r="Q125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R125" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:21">
       <c r="A126" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B126" t="s">
         <v>53</v>
@@ -9221,13 +9218,13 @@
         <v>57</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H126" t="s">
         <v>59</v>
       </c>
       <c r="I126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J126" t="s">
         <v>61</v>
@@ -9251,24 +9248,24 @@
         <v>35</v>
       </c>
       <c r="Q126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R126" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U126" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:21">
       <c r="A127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B127" t="s">
         <v>53</v>
@@ -9289,11 +9286,11 @@
         <v>58</v>
       </c>
       <c r="H127" t="s">
+        <v>44</v>
+      </c>
+      <c r="I127" t="s">
         <v>45</v>
       </c>
-      <c r="I127" t="s">
-        <v>46</v>
-      </c>
       <c r="J127" t="s">
         <v>61</v>
       </c>
@@ -9316,24 +9313,24 @@
         <v>35</v>
       </c>
       <c r="Q127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T127" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U127" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:21">
       <c r="A128" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B128" t="s">
         <v>53</v>
@@ -9351,10 +9348,10 @@
         <v>57</v>
       </c>
       <c r="G128" t="s">
+        <v>43</v>
+      </c>
+      <c r="H128" t="s">
         <v>44</v>
-      </c>
-      <c r="H128" t="s">
-        <v>45</v>
       </c>
       <c r="I128" t="s">
         <v>51</v>
@@ -9381,24 +9378,24 @@
         <v>35</v>
       </c>
       <c r="Q128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R128" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U128" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:21">
       <c r="A129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B129" t="s">
         <v>53</v>
@@ -9416,7 +9413,7 @@
         <v>57</v>
       </c>
       <c r="G129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H129" t="s">
         <v>59</v>
@@ -9446,24 +9443,24 @@
         <v>35</v>
       </c>
       <c r="Q129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R129" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U129" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:21">
       <c r="A130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B130" t="s">
         <v>53</v>
@@ -9484,7 +9481,7 @@
         <v>58</v>
       </c>
       <c r="H130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I130" t="s">
         <v>51</v>
@@ -9511,24 +9508,24 @@
         <v>35</v>
       </c>
       <c r="Q130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R130" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T130" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U130" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:21">
       <c r="A131" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B131" t="s">
         <v>65</v>
@@ -9546,13 +9543,13 @@
         <v>57</v>
       </c>
       <c r="G131" t="s">
+        <v>43</v>
+      </c>
+      <c r="H131" t="s">
         <v>44</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>45</v>
-      </c>
-      <c r="I131" t="s">
-        <v>46</v>
       </c>
       <c r="J131" t="s">
         <v>61</v>
@@ -9579,21 +9576,21 @@
         <v>62</v>
       </c>
       <c r="R131" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T131" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U131" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:21">
       <c r="A132" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B132" t="s">
         <v>65</v>
@@ -9611,13 +9608,13 @@
         <v>57</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H132" t="s">
         <v>59</v>
       </c>
       <c r="I132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J132" t="s">
         <v>61</v>
@@ -9644,21 +9641,21 @@
         <v>62</v>
       </c>
       <c r="R132" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T132" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U132" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:21">
       <c r="A133" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B133" t="s">
         <v>65</v>
@@ -9679,10 +9676,10 @@
         <v>58</v>
       </c>
       <c r="H133" t="s">
+        <v>44</v>
+      </c>
+      <c r="I133" t="s">
         <v>45</v>
-      </c>
-      <c r="I133" t="s">
-        <v>46</v>
       </c>
       <c r="J133" t="s">
         <v>61</v>
@@ -9709,21 +9706,21 @@
         <v>62</v>
       </c>
       <c r="R133" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T133" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U133" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:21">
       <c r="A134" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B134" t="s">
         <v>65</v>
@@ -9741,10 +9738,10 @@
         <v>57</v>
       </c>
       <c r="G134" t="s">
+        <v>43</v>
+      </c>
+      <c r="H134" t="s">
         <v>44</v>
-      </c>
-      <c r="H134" t="s">
-        <v>45</v>
       </c>
       <c r="I134" t="s">
         <v>51</v>
@@ -9774,21 +9771,21 @@
         <v>62</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T134" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U134" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:21">
       <c r="A135" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B135" t="s">
         <v>65</v>
@@ -9806,7 +9803,7 @@
         <v>57</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H135" t="s">
         <v>59</v>
@@ -9838,22 +9835,22 @@
       <c r="Q135" t="s">
         <v>62</v>
       </c>
-      <c r="R135">
-        <v>249.881</v>
-      </c>
-      <c r="S135">
-        <v>-65.1194</v>
-      </c>
-      <c r="T135">
-        <v>-0.119415</v>
+      <c r="R135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T135" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="U135" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:21">
       <c r="A136" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B136" t="s">
         <v>65</v>
@@ -9874,7 +9871,7 @@
         <v>58</v>
       </c>
       <c r="H136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I136" t="s">
         <v>51</v>
@@ -9904,21 +9901,21 @@
         <v>62</v>
       </c>
       <c r="R136" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U136" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:21">
       <c r="A137" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B137" t="s">
         <v>65</v>
@@ -9936,14 +9933,14 @@
         <v>57</v>
       </c>
       <c r="G137" t="s">
+        <v>43</v>
+      </c>
+      <c r="H137" t="s">
         <v>44</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>45</v>
       </c>
-      <c r="I137" t="s">
-        <v>46</v>
-      </c>
       <c r="J137" t="s">
         <v>61</v>
       </c>
@@ -9966,24 +9963,24 @@
         <v>35</v>
       </c>
       <c r="Q137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R137" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U137" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:21">
       <c r="A138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B138" t="s">
         <v>65</v>
@@ -10001,13 +9998,13 @@
         <v>57</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H138" t="s">
         <v>59</v>
       </c>
       <c r="I138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J138" t="s">
         <v>61</v>
@@ -10031,24 +10028,24 @@
         <v>35</v>
       </c>
       <c r="Q138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R138" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:21">
       <c r="A139" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B139" t="s">
         <v>65</v>
@@ -10069,11 +10066,11 @@
         <v>58</v>
       </c>
       <c r="H139" t="s">
+        <v>44</v>
+      </c>
+      <c r="I139" t="s">
         <v>45</v>
       </c>
-      <c r="I139" t="s">
-        <v>46</v>
-      </c>
       <c r="J139" t="s">
         <v>61</v>
       </c>
@@ -10096,24 +10093,24 @@
         <v>35</v>
       </c>
       <c r="Q139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U139" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:21">
       <c r="A140" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B140" t="s">
         <v>65</v>
@@ -10131,10 +10128,10 @@
         <v>57</v>
       </c>
       <c r="G140" t="s">
+        <v>43</v>
+      </c>
+      <c r="H140" t="s">
         <v>44</v>
-      </c>
-      <c r="H140" t="s">
-        <v>45</v>
       </c>
       <c r="I140" t="s">
         <v>51</v>
@@ -10161,24 +10158,24 @@
         <v>35</v>
       </c>
       <c r="Q140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R140" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U140" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:21">
       <c r="A141" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
         <v>65</v>
@@ -10196,7 +10193,7 @@
         <v>57</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H141" t="s">
         <v>59</v>
@@ -10226,24 +10223,24 @@
         <v>35</v>
       </c>
       <c r="Q141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T141" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U141" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:21">
       <c r="A142" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B142" t="s">
         <v>65</v>
@@ -10264,7 +10261,7 @@
         <v>58</v>
       </c>
       <c r="H142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I142" t="s">
         <v>51</v>
@@ -10291,24 +10288,24 @@
         <v>35</v>
       </c>
       <c r="Q142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T142" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U142" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:21">
       <c r="A143" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B143" t="s">
         <v>71</v>
@@ -10326,13 +10323,13 @@
         <v>57</v>
       </c>
       <c r="G143" t="s">
+        <v>43</v>
+      </c>
+      <c r="H143" t="s">
         <v>44</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>45</v>
-      </c>
-      <c r="I143" t="s">
-        <v>46</v>
       </c>
       <c r="J143" t="s">
         <v>61</v>
@@ -10359,21 +10356,21 @@
         <v>62</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T143" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U143" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:21">
       <c r="A144" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B144" t="s">
         <v>71</v>
@@ -10391,13 +10388,13 @@
         <v>57</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H144" t="s">
         <v>59</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J144" t="s">
         <v>61</v>
@@ -10424,21 +10421,21 @@
         <v>62</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T144" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U144" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:21">
       <c r="A145" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B145" t="s">
         <v>71</v>
@@ -10459,10 +10456,10 @@
         <v>58</v>
       </c>
       <c r="H145" t="s">
+        <v>44</v>
+      </c>
+      <c r="I145" t="s">
         <v>45</v>
-      </c>
-      <c r="I145" t="s">
-        <v>46</v>
       </c>
       <c r="J145" t="s">
         <v>61</v>
@@ -10489,21 +10486,21 @@
         <v>62</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T145" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U145" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:21">
       <c r="A146" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B146" t="s">
         <v>71</v>
@@ -10521,10 +10518,10 @@
         <v>57</v>
       </c>
       <c r="G146" t="s">
+        <v>43</v>
+      </c>
+      <c r="H146" t="s">
         <v>44</v>
-      </c>
-      <c r="H146" t="s">
-        <v>45</v>
       </c>
       <c r="I146" t="s">
         <v>51</v>
@@ -10554,21 +10551,21 @@
         <v>62</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T146" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U146" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:21">
       <c r="A147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B147" t="s">
         <v>71</v>
@@ -10586,7 +10583,7 @@
         <v>57</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H147" t="s">
         <v>59</v>
@@ -10619,21 +10616,21 @@
         <v>62</v>
       </c>
       <c r="R147" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T147" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U147" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:21">
       <c r="A148" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B148" t="s">
         <v>71</v>
@@ -10654,7 +10651,7 @@
         <v>58</v>
       </c>
       <c r="H148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I148" t="s">
         <v>51</v>
@@ -10684,21 +10681,21 @@
         <v>62</v>
       </c>
       <c r="R148" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T148" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U148" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:21">
       <c r="A149" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B149" t="s">
         <v>71</v>
@@ -10716,14 +10713,14 @@
         <v>57</v>
       </c>
       <c r="G149" t="s">
+        <v>43</v>
+      </c>
+      <c r="H149" t="s">
         <v>44</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>45</v>
       </c>
-      <c r="I149" t="s">
-        <v>46</v>
-      </c>
       <c r="J149" t="s">
         <v>61</v>
       </c>
@@ -10746,24 +10743,24 @@
         <v>35</v>
       </c>
       <c r="Q149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R149" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S149" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T149" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U149" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:21">
       <c r="A150" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
         <v>71</v>
@@ -10781,13 +10778,13 @@
         <v>57</v>
       </c>
       <c r="G150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H150" t="s">
         <v>59</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J150" t="s">
         <v>61</v>
@@ -10811,24 +10808,24 @@
         <v>35</v>
       </c>
       <c r="Q150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R150" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T150" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U150" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:21">
       <c r="A151" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B151" t="s">
         <v>71</v>
@@ -10849,11 +10846,11 @@
         <v>58</v>
       </c>
       <c r="H151" t="s">
+        <v>44</v>
+      </c>
+      <c r="I151" t="s">
         <v>45</v>
       </c>
-      <c r="I151" t="s">
-        <v>46</v>
-      </c>
       <c r="J151" t="s">
         <v>61</v>
       </c>
@@ -10876,24 +10873,24 @@
         <v>35</v>
       </c>
       <c r="Q151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R151" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T151" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U151" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:21">
       <c r="A152" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B152" t="s">
         <v>71</v>
@@ -10911,10 +10908,10 @@
         <v>57</v>
       </c>
       <c r="G152" t="s">
+        <v>43</v>
+      </c>
+      <c r="H152" t="s">
         <v>44</v>
-      </c>
-      <c r="H152" t="s">
-        <v>45</v>
       </c>
       <c r="I152" t="s">
         <v>51</v>
@@ -10941,24 +10938,24 @@
         <v>35</v>
       </c>
       <c r="Q152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R152" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T152" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U152" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:21">
       <c r="A153" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B153" t="s">
         <v>71</v>
@@ -10976,7 +10973,7 @@
         <v>57</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H153" t="s">
         <v>59</v>
@@ -11006,24 +11003,24 @@
         <v>35</v>
       </c>
       <c r="Q153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T153" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U153" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:21">
       <c r="A154" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B154" t="s">
         <v>71</v>
@@ -11044,7 +11041,7 @@
         <v>58</v>
       </c>
       <c r="H154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I154" t="s">
         <v>51</v>
@@ -11071,19 +11068,19 @@
         <v>35</v>
       </c>
       <c r="Q154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R154" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="T154" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="U154" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:21" s="1" customFormat="1">
@@ -11153,107 +11150,107 @@
     </row>
     <row r="156" spans="1:21" s="1" customFormat="1">
       <c r="Q156" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R156" s="1">
-        <v>249.706</v>
+        <v>315.033</v>
       </c>
       <c r="S156" s="1">
-        <v>-135.095</v>
+        <v>0.0328094</v>
       </c>
       <c r="T156" s="1">
-        <v>-0.293586</v>
-      </c>
-      <c r="U156" s="1" t="s">
-        <v>142</v>
+        <v>0.0328094</v>
+      </c>
+      <c r="U156" s="1">
+        <v>262.265</v>
       </c>
     </row>
     <row r="157" spans="1:21" s="1" customFormat="1">
       <c r="Q157" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R157" s="1">
-        <v>250.21</v>
+        <v>350.054</v>
       </c>
       <c r="S157" s="1">
-        <v>-64.7899</v>
+        <v>0.06455569999999999</v>
       </c>
       <c r="T157" s="1">
-        <v>0.210074</v>
-      </c>
-      <c r="U157" s="1" t="s">
-        <v>142</v>
+        <v>0.06455569999999999</v>
+      </c>
+      <c r="U157" s="1">
+        <v>379.125</v>
       </c>
     </row>
     <row r="158" spans="1:21" s="1" customFormat="1">
       <c r="Q158" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="159" spans="1:21" s="1" customFormat="1">
       <c r="Q159" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="160" spans="1:21" s="1" customFormat="1">
       <c r="Q160" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="161" spans="17:21" s="1" customFormat="1">
       <c r="Q161" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="162" spans="17:21" s="1" customFormat="1">
       <c r="Q162" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R162" s="1">
-        <v>249.8994</v>
+        <v>326.7173</v>
       </c>
       <c r="S162" s="1">
-        <v>-80.10065</v>
+        <v>0.05033967</v>
       </c>
       <c r="T162" s="1">
-        <v>-0.1006535</v>
-      </c>
-      <c r="U162" s="1" t="s">
-        <v>142</v>
+        <v>0.05033967</v>
+      </c>
+      <c r="U162" s="1">
+        <v>322.2457</v>
       </c>
     </row>
     <row r="163" spans="17:21" s="1" customFormat="1">
       <c r="Q163" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R163" s="1">
-        <v>0.142321</v>
+        <v>16.50152</v>
       </c>
       <c r="S163" s="1">
-        <v>28.161277</v>
+        <v>0.013171</v>
       </c>
       <c r="T163" s="1">
-        <v>0.142236</v>
-      </c>
-      <c r="U163" s="1" t="s">
-        <v>142</v>
+        <v>0.013171</v>
+      </c>
+      <c r="U163" s="1">
+        <v>47.75827</v>
       </c>
     </row>
     <row r="164" spans="17:21" s="1" customFormat="1">
       <c r="Q164" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R164" s="1">
-        <v>0.056951</v>
+        <v>5.050703</v>
       </c>
       <c r="S164" s="1">
-        <v>35.157364</v>
+        <v>26.164256</v>
       </c>
       <c r="T164" s="1">
-        <v>141.312523</v>
-      </c>
-      <c r="U164" s="1" t="s">
-        <v>142</v>
+        <v>26.164256</v>
+      </c>
+      <c r="U164" s="1">
+        <v>14.820452</v>
       </c>
     </row>
     <row r="165" spans="17:21" s="1" customFormat="1"/>
